--- a/Actual Coding/Mare_posts.xlsx
+++ b/Actual Coding/Mare_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S09FGI</t>
+          <t>WU9DXU</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NIIOY7</t>
+          <t>6XHGDJ</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>K50MIO</t>
+          <t>MXX394</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E3IPCE</t>
+          <t>E4FT5P</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VEQQIV</t>
+          <t>HKH5E2</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ACPE0N</t>
+          <t>NJ3868</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RBM916</t>
+          <t>TW3G1N</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PXOZ40</t>
+          <t>SB2VDN</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VP7W7Q</t>
+          <t>DECREU</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UXYHX8</t>
+          <t>0462B4</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9BLMV2</t>
+          <t>MB5YMH</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>89ND94</t>
+          <t>SEP43O</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7P7SX7</t>
+          <t>PILO14</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CL3U14</t>
+          <t>7M7PLL</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5G42P3</t>
+          <t>70Q193</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3GU58V</t>
+          <t>AEBURQ</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MQ0ZBZ</t>
+          <t>D1AUIM</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2GXI7S</t>
+          <t>JYC2NQ</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1BCUZK</t>
+          <t>OAMXBI</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HDX4EC</t>
+          <t>F99ZPW</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ZKX3QU</t>
+          <t>39YJBE</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N0FV4O</t>
+          <t>V6S303</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HCMSBW</t>
+          <t>8ZXP3O</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1QRLQ0</t>
+          <t>4YK249</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GTNUS1</t>
+          <t>RPCAWH</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VUHEE2</t>
+          <t>S92JRQ</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MAKHUP</t>
+          <t>M1EUAY</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HWNV37</t>
+          <t>XIQRMO</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7HHJCF</t>
+          <t>O2FESY</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>973HIB</t>
+          <t>38YS9S</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>K3HR18</t>
+          <t>CLJYGS</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N50D52</t>
+          <t>KSP857</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>07LDI8</t>
+          <t>U4GQ6K</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>N64JM8</t>
+          <t>TBA2VS</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EI0DB7</t>
+          <t>RT1226</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HOVO93</t>
+          <t>NWSC1P</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>113CPX</t>
+          <t>UFUS2T</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5WBDYQ</t>
+          <t>TBS9A9</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HVQYH0</t>
+          <t>6BUQG4</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LAPQD7</t>
+          <t>O76G47</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>OOD02T</t>
+          <t>IVH89M</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>S9DNC7</t>
+          <t>SZRJP1</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20ASCI</t>
+          <t>HW0VGL</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B31XWB</t>
+          <t>QRS0GD</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FXGTWQ</t>
+          <t>M18GTU</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>OMHQAP</t>
+          <t>N056FB</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5J0W1Y</t>
+          <t>7OFPAM</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TCM9HG</t>
+          <t>YFLC14</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0HPXWK</t>
+          <t>3NU6FQ</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7TK7TS</t>
+          <t>PBSCWO</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3JY65C</t>
+          <t>2XHGHK</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8MIHAU</t>
+          <t>GQKT9V</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>D057VH</t>
+          <t>8E6450</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PO4TEX</t>
+          <t>4ACYIX</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IKW533</t>
+          <t>JMQVUB</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7GPKD7</t>
+          <t>R5T3K7</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SQCCFX</t>
+          <t>KSS1WS</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>QUUMBP</t>
+          <t>RTPBZ0</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>B91NR1</t>
+          <t>G35NRS</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>VDYPEM</t>
+          <t>QZG5VC</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ZFJBQM</t>
+          <t>42IHRY</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>R3OHFC</t>
+          <t>4JRTOA</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>YCQUUV</t>
+          <t>VQV6LH</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>8GHPTY</t>
+          <t>P2BJPI</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>QFQ9HN</t>
+          <t>LEOV7X</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EMMQKS</t>
+          <t>318IHX</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DCUDR9</t>
+          <t>RKYLL3</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q643N8</t>
+          <t>CL9W21</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6V1Q5U</t>
+          <t>OYF6Z2</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>E5FM3S</t>
+          <t>FOIXUV</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>IWZ9MT</t>
+          <t>YPQ8TJ</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TAA7IT</t>
+          <t>6CPVSE</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>YW3AZC</t>
+          <t>0T4PPV</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>UOIS1T</t>
+          <t>X89OCX</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BRRZPX</t>
+          <t>J8ITCR</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>E71AS6</t>
+          <t>OXGAJK</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HUQK1J</t>
+          <t>Y8KMJ7</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>G0KFYI</t>
+          <t>K9OH24</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VEQWAT</t>
+          <t>ZK2G7D</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>35277W</t>
+          <t>T9NRL6</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MBSFVQ</t>
+          <t>WC5WBL</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BO9LOZ</t>
+          <t>TQ8233</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>LHRV3F</t>
+          <t>SG4CEB</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>G1CO2Q</t>
+          <t>Y74DT6</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>IQW8II</t>
+          <t>0CGBOE</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2MSMOH</t>
+          <t>C90Q2Q</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4LC1FV</t>
+          <t>4O7PGZ</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>IDA7Q3</t>
+          <t>HWXY7Q</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7AUZMB</t>
+          <t>YZE5UB</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NUQQZC</t>
+          <t>X2O7BC</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>W3EFDZ</t>
+          <t>K3S1IV</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>63XANC</t>
+          <t>9MHEJI</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>U55TXJ</t>
+          <t>OFEO51</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>06XTWY</t>
+          <t>YVCX2G</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>YJGNXZ</t>
+          <t>V90I13</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>U8VXPP</t>
+          <t>FJZFAZ</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DBYUOM</t>
+          <t>O2PWO0</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Q19D39</t>
+          <t>WSVRKS</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>A2ET4W</t>
+          <t>3Y368N</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>KIBNZO</t>
+          <t>6WBQ43</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2S8IOR</t>
+          <t>4V6GIE</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>89PYLO</t>
+          <t>BH7T3A</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BTXM17</t>
+          <t>Z45VOH</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>8U3NLO</t>
+          <t>WMMWK3</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>VSU4OJ</t>
+          <t>E8BAB3</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>OVBOUN</t>
+          <t>HOOEEC</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DVZ8LJ</t>
+          <t>MA3ZB2</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ZOGJI4</t>
+          <t>X7IV6W</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>73J8XP</t>
+          <t>9MVIJ2</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>XQ1700</t>
+          <t>YOVBIX</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1WPZTI</t>
+          <t>UKO0BO</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TS9FP2</t>
+          <t>FGG2S1</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>L09JJP</t>
+          <t>9L1ET6</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>T110EO</t>
+          <t>T3OY8M</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>KMBS6E</t>
+          <t>KMDK27</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CTNWNU</t>
+          <t>YNHR5S</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1DSMF1</t>
+          <t>LWXK0V</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>P82UYS</t>
+          <t>ZRPPIC</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>VI9BQ7</t>
+          <t>UJPJ8L</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>455WO0</t>
+          <t>KYZRVX</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DRC55J</t>
+          <t>TTHP43</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>BAUEKD</t>
+          <t>V13O2Z</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>BXR7GW</t>
+          <t>73X04H</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1WNGKK</t>
+          <t>B1QFOI</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>LO0ZSH</t>
+          <t>SL910K</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BD3REZ</t>
+          <t>4JVIJO</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3Z290H</t>
+          <t>8VAFPD</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GD08G9</t>
+          <t>G1CGEU</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CXZF56</t>
+          <t>AP45CU</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ANQZVA</t>
+          <t>RO49TX</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GNZSL0</t>
+          <t>K9W7ZS</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>L3OHFK</t>
+          <t>94HKD1</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>AYVI34</t>
+          <t>C1DCXF</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ADWGN7</t>
+          <t>SL0I5A</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PRZLGE</t>
+          <t>XRILET</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>G29SG5</t>
+          <t>AM186P</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ZCE8UK</t>
+          <t>59LETX</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3XOY9U</t>
+          <t>B3ZUEF</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>9ZSVIQ</t>
+          <t>GV6WUW</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>S6OIRY</t>
+          <t>JZUOWW</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>29U0RG</t>
+          <t>3PG01D</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4ZOI0Q</t>
+          <t>RRMHJH</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SXGNGA</t>
+          <t>T9CW7J</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>IDAM67</t>
+          <t>J3DGOT</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3EH1C8</t>
+          <t>5IF761</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Q17HGB</t>
+          <t>Y04NWC</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>U8AN7M</t>
+          <t>YBDAFJ</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CISKL6</t>
+          <t>07QV6Z</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>9E8OM3</t>
+          <t>HXTVBU</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CU22EZ</t>
+          <t>UB3K2P</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>BQ9Y0B</t>
+          <t>N4YITJ</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>WW5SKY</t>
+          <t>TW5D7E</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>JA6G2O</t>
+          <t>USAO9A</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>VOUGIN</t>
+          <t>1ROAWA</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>VPJUOR</t>
+          <t>XQF3N1</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ZM4JSE</t>
+          <t>IUM2KH</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>64SM2L</t>
+          <t>BQW8K1</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>I9YMZ7</t>
+          <t>HGMAQA</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>7G7Q32</t>
+          <t>2GKX0I</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MGKJQK</t>
+          <t>EH6GGZ</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>JNTC0V</t>
+          <t>APEI61</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>WZD0L8</t>
+          <t>CFCB0N</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>F1CP2H</t>
+          <t>B45ZQ8</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>B3RS09</t>
+          <t>HDM6LN</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>WUN3M7</t>
+          <t>8QBEPP</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>UBWA3N</t>
+          <t>MLRUKQ</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>M7IEHP</t>
+          <t>Y7EL6J</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>75UEAE</t>
+          <t>R2EDCT</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3595O1</t>
+          <t>4GR7W2</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>3ZXICR</t>
+          <t>UGBB7Y</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>8FYROI</t>
+          <t>RFFWI4</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3SK1J2</t>
+          <t>J4U7U3</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>W6REBO</t>
+          <t>B0YGTH</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CJB1X0</t>
+          <t>BICGJP</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>AQUYQT</t>
+          <t>1WRKY2</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>76KHXK</t>
+          <t>FS7EAA</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ZH8HXL</t>
+          <t>7U1YEU</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0I1BWG</t>
+          <t>10IETL</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>RX1IBJ</t>
+          <t>7F2MKW</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ME0C9T</t>
+          <t>CKEFGW</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>YATO1F</t>
+          <t>G6SV72</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DIL5ZH</t>
+          <t>SO4F70</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>8HFQA6</t>
+          <t>UONN4O</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CUIZSS</t>
+          <t>FMRJLL</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>X1C3GC</t>
+          <t>APJPDC</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>A0KVIT</t>
+          <t>QY0Z14</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>LJN9PB</t>
+          <t>RUQW4Q</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>G6ZGAI</t>
+          <t>GYH4GT</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>CUSXMP</t>
+          <t>NUJ9UA</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0GPVBE</t>
+          <t>UVVBYX</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BNQLSZ</t>
+          <t>PPQFOV</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>FB79FQ</t>
+          <t>2FGRJK</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>R0XR02</t>
+          <t>Z60KTL</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>GDBENH</t>
+          <t>AAAAIA</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>RH8S5D</t>
+          <t>A6BF2O</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>6JMPM5</t>
+          <t>88TCVG</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>QQGSCR</t>
+          <t>XNPCDO</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>344XYH</t>
+          <t>WBR4MR</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>C70WZK</t>
+          <t>08XTUQ</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>AXC88D</t>
+          <t>Q5D0Y2</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>YWINB8</t>
+          <t>HGXZ68</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>JY18JG</t>
+          <t>7D25YF</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>HTHFNV</t>
+          <t>7VSIOS</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>TI0D74</t>
+          <t>NC1SM0</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>7MG1XK</t>
+          <t>QBEXDS</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>JXGL45</t>
+          <t>HS7M8G</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3R9ORR</t>
+          <t>VD57SF</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>19Y3M8</t>
+          <t>2YMQWQ</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Y8RTWZ</t>
+          <t>PDM2QO</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>K56Q7K</t>
+          <t>6KZKUF</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>XRCBLT</t>
+          <t>CR8GKU</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>TI4L8K</t>
+          <t>8EIU7E</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>FBFZRF</t>
+          <t>QFW55W</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>9TG8P8</t>
+          <t>989YVC</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>40MHDF</t>
+          <t>DMDR8F</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DG6LF2</t>
+          <t>H2YROH</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7TC8N0</t>
+          <t>HDIYCZ</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>9UZGOG</t>
+          <t>UMFMVR</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>HJVS5X</t>
+          <t>XTB2G8</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>T9BBJ1</t>
+          <t>O12HD0</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>OYJMNW</t>
+          <t>5U0LKO</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>K88BZT</t>
+          <t>VJRO3D</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>0LMHOF</t>
+          <t>N95MD9</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>B16RGQ</t>
+          <t>JFLTXV</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>0WXRPN</t>
+          <t>GZMYIW</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>G9I7ZW</t>
+          <t>V34O9C</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>P5POAC</t>
+          <t>BD3VKV</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>YBM1F5</t>
+          <t>CNFIG4</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>69PGUZ</t>
+          <t>66IHN5</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2386UO</t>
+          <t>C47RMJ</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>LK6VVS</t>
+          <t>N0KXEY</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ECPN28</t>
+          <t>V19GEY</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>XN61U1</t>
+          <t>YRCR45</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2QK4O8</t>
+          <t>DKE3MH</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Z4BO4T</t>
+          <t>2ZSTLW</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>RK6JNE</t>
+          <t>JOGX8O</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>WLJH0S</t>
+          <t>BAT7SF</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>7LLY91</t>
+          <t>2A178D</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>TVRKER</t>
+          <t>RQPOQG</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>CKV8O0</t>
+          <t>TM3KJW</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>E8CF4L</t>
+          <t>2K2O9J</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>HCL101</t>
+          <t>OPMWL9</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2WAK3F</t>
+          <t>VD5KX9</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8SB1RT</t>
+          <t>NDKN8H</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>7QBZNS</t>
+          <t>YIUYT6</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>88KQLQ</t>
+          <t>0CBMYV</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>172UHM</t>
+          <t>8YXCOU</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Y4870R</t>
+          <t>21KSIZ</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>6TIV94</t>
+          <t>TLJKV8</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>KXZH51</t>
+          <t>3HJ6XQ</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>FY4MNS</t>
+          <t>7LATIN</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>P6W5N0</t>
+          <t>X1FAZB</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2CCG0L</t>
+          <t>UVZO86</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>5XEN5G</t>
+          <t>50H60B</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>I0FF7E</t>
+          <t>9ANU1J</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>AASJYI</t>
+          <t>C99HQW</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>3WI0NU</t>
+          <t>MZ1ZBJ</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>QXJFIT</t>
+          <t>GUR1BA</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>H817HQ</t>
+          <t>T5H7C6</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>WLYFBO</t>
+          <t>LSZ0XJ</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>ZXHCHI</t>
+          <t>6BPAH6</t>
         </is>
       </c>
     </row>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>0Y5NYC</t>
+          <t>Y9JRCX</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>8R4FFN</t>
+          <t>SPF64J</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>S2JVTF</t>
+          <t>8NAWCO</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>XG0CSK</t>
+          <t>00X1SN</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>NAH3VP</t>
+          <t>27YW1A</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>6LI8B6</t>
+          <t>MEIKNG</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>0CV728</t>
+          <t>KSAJ2M</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>FO2DQX</t>
+          <t>BPWZWR</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>K3WHSM</t>
+          <t>81B48Y</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>S9DG4D</t>
+          <t>K6Z4FD</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>UVC8RY</t>
+          <t>4UIXU2</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>9E5NTA</t>
+          <t>MAFOTC</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>IR7L0X</t>
+          <t>7771M8</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>BDM172</t>
+          <t>47BHFW</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>T396BY</t>
+          <t>NIVWOY</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>9CR33R</t>
+          <t>KUQDU3</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9N6GNJ</t>
+          <t>4ISIYW</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>ZC1KZM</t>
+          <t>27S891</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>JUVQAA</t>
+          <t>LZKU5W</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>BLY99G</t>
+          <t>MYGJRF</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>QEO2W4</t>
+          <t>SE80UO</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>HI54GW</t>
+          <t>0CCDJC</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>W4E4RP</t>
+          <t>TIS9GR</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2M91LI</t>
+          <t>826VAW</t>
         </is>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>HTCTD3</t>
+          <t>AEV65K</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>5ZNCL6</t>
+          <t>YT4SD6</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>VS8845</t>
+          <t>PTQ0O1</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>MFLKZ5</t>
+          <t>FN2N9O</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>DL8LZL</t>
+          <t>08L2EO</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2MUE0T</t>
+          <t>M1QZ6K</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>SSUNZ5</t>
+          <t>380NPZ</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>NYIIGR</t>
+          <t>IMOSL2</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>CE1SVV</t>
+          <t>T7TXOR</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>NBBBPY</t>
+          <t>HFS7QS</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>IZFEWL</t>
+          <t>ZTKQ1R</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>R1KN9W</t>
+          <t>D65OT9</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>FCA7KF</t>
+          <t>8ZU4GU</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>9HFXGX</t>
+          <t>MN50A2</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>X2I4AP</t>
+          <t>8GW58J</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Mare_posts.xlsx
+++ b/Actual Coding/Mare_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WU9DXU</t>
+          <t>ZL7UAW</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6XHGDJ</t>
+          <t>E1LMNG</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MXX394</t>
+          <t>VVPPGP</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E4FT5P</t>
+          <t>CB31LP</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HKH5E2</t>
+          <t>6ZXDLK</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NJ3868</t>
+          <t>JNXPWN</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TW3G1N</t>
+          <t>M3LRY7</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SB2VDN</t>
+          <t>QE3L25</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DECREU</t>
+          <t>3IQMQA</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0462B4</t>
+          <t>PFIT1J</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MB5YMH</t>
+          <t>R6366G</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SEP43O</t>
+          <t>6YKJKZ</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PILO14</t>
+          <t>GJSTQF</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7M7PLL</t>
+          <t>DPF0VR</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>70Q193</t>
+          <t>2C3MD8</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AEBURQ</t>
+          <t>KHRFLQ</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D1AUIM</t>
+          <t>AXEJ3S</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JYC2NQ</t>
+          <t>MF48EN</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>OAMXBI</t>
+          <t>ETPAHZ</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>F99ZPW</t>
+          <t>EB5ABI</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>39YJBE</t>
+          <t>R6FQKG</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>V6S303</t>
+          <t>768CNG</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8ZXP3O</t>
+          <t>YYHKLP</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4YK249</t>
+          <t>IGWY5R</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RPCAWH</t>
+          <t>DY0494</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>S92JRQ</t>
+          <t>98245P</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M1EUAY</t>
+          <t>NHZNC1</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>XIQRMO</t>
+          <t>NEOLDL</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>O2FESY</t>
+          <t>30ALTM</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>38YS9S</t>
+          <t>CGDZPB</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CLJYGS</t>
+          <t>HWYIBN</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>KSP857</t>
+          <t>MU9UP0</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>U4GQ6K</t>
+          <t>P1SVAT</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TBA2VS</t>
+          <t>GOIGYL</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RT1226</t>
+          <t>J7MIOI</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NWSC1P</t>
+          <t>2XGXPE</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>UFUS2T</t>
+          <t>IE1436</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TBS9A9</t>
+          <t>8Q7MAP</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6BUQG4</t>
+          <t>A6LBBX</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O76G47</t>
+          <t>K932SY</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IVH89M</t>
+          <t>G9C4AU</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SZRJP1</t>
+          <t>6RCG4R</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HW0VGL</t>
+          <t>OFTQUH</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>QRS0GD</t>
+          <t>OPMIUO</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>M18GTU</t>
+          <t>KZQ8EV</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N056FB</t>
+          <t>450GT8</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7OFPAM</t>
+          <t>ED4R0A</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>YFLC14</t>
+          <t>33I489</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3NU6FQ</t>
+          <t>CPYR7H</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PBSCWO</t>
+          <t>BT66CM</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2XHGHK</t>
+          <t>GLQOD9</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GQKT9V</t>
+          <t>AOOG9Q</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8E6450</t>
+          <t>DLD3ST</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4ACYIX</t>
+          <t>72HSLE</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JMQVUB</t>
+          <t>NM9A0T</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R5T3K7</t>
+          <t>BSMLVY</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>KSS1WS</t>
+          <t>73CIX7</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RTPBZ0</t>
+          <t>WN5D0O</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>G35NRS</t>
+          <t>54VWH6</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QZG5VC</t>
+          <t>LHKMPD</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>42IHRY</t>
+          <t>ASH8FX</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4JRTOA</t>
+          <t>CP8R2F</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VQV6LH</t>
+          <t>PV1KI9</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>P2BJPI</t>
+          <t>USMN3B</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LEOV7X</t>
+          <t>E6BYJA</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>318IHX</t>
+          <t>JKY6VM</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RKYLL3</t>
+          <t>5WNWI9</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CL9W21</t>
+          <t>3OCHGU</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>OYF6Z2</t>
+          <t>V52XG1</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FOIXUV</t>
+          <t>YNDWVD</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>YPQ8TJ</t>
+          <t>V1LTIU</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>6CPVSE</t>
+          <t>JWLRIA</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0T4PPV</t>
+          <t>4IRREG</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>X89OCX</t>
+          <t>648ENZ</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J8ITCR</t>
+          <t>TQOMXM</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>OXGAJK</t>
+          <t>CGF0Z7</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Y8KMJ7</t>
+          <t>J6291H</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>K9OH24</t>
+          <t>KGRMFZ</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ZK2G7D</t>
+          <t>D7ZX2W</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>T9NRL6</t>
+          <t>EJ5AZE</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>WC5WBL</t>
+          <t>ETNP3T</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TQ8233</t>
+          <t>W4CDTE</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SG4CEB</t>
+          <t>SZPIB4</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Y74DT6</t>
+          <t>IRNIBG</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0CGBOE</t>
+          <t>OCDQIW</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>C90Q2Q</t>
+          <t>4ZZ5XU</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4O7PGZ</t>
+          <t>86L8O2</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HWXY7Q</t>
+          <t>V5J8J0</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>YZE5UB</t>
+          <t>U47B59</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X2O7BC</t>
+          <t>KDUX4D</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>K3S1IV</t>
+          <t>GQNB41</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>9MHEJI</t>
+          <t>QV8QLO</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>OFEO51</t>
+          <t>O1GHEA</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>YVCX2G</t>
+          <t>9D7CBG</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>V90I13</t>
+          <t>YYGM1F</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>FJZFAZ</t>
+          <t>GT7YJL</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>O2PWO0</t>
+          <t>NY7WYG</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>WSVRKS</t>
+          <t>00XM4L</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3Y368N</t>
+          <t>61CY90</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6WBQ43</t>
+          <t>844NQM</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4V6GIE</t>
+          <t>5WF6QF</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BH7T3A</t>
+          <t>MFS85W</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Z45VOH</t>
+          <t>OH0QTW</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>WMMWK3</t>
+          <t>YIODNU</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>E8BAB3</t>
+          <t>5H5ZF8</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HOOEEC</t>
+          <t>P0KAEP</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MA3ZB2</t>
+          <t>GI8N49</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>X7IV6W</t>
+          <t>VQKBYF</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9MVIJ2</t>
+          <t>NSP29N</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>YOVBIX</t>
+          <t>1JDAG3</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>UKO0BO</t>
+          <t>O7WO6S</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>FGG2S1</t>
+          <t>OFGE7O</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9L1ET6</t>
+          <t>MYD7AY</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>T3OY8M</t>
+          <t>KHMNJG</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>KMDK27</t>
+          <t>W1UX3V</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>YNHR5S</t>
+          <t>HV8DMD</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>LWXK0V</t>
+          <t>92HNEX</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ZRPPIC</t>
+          <t>FAP5DD</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>UJPJ8L</t>
+          <t>OILCF8</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>KYZRVX</t>
+          <t>2RTU0G</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TTHP43</t>
+          <t>LKVS2W</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>V13O2Z</t>
+          <t>CFVH9A</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>73X04H</t>
+          <t>RADZUL</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>B1QFOI</t>
+          <t>DYASKL</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SL910K</t>
+          <t>GR6XL0</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4JVIJO</t>
+          <t>GEUPDH</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>8VAFPD</t>
+          <t>NZLJRO</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>G1CGEU</t>
+          <t>RFUXJ6</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>AP45CU</t>
+          <t>BJ2T07</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>RO49TX</t>
+          <t>KXQWUI</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>K9W7ZS</t>
+          <t>SOVHY1</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>94HKD1</t>
+          <t>WNKBKG</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C1DCXF</t>
+          <t>3JBCMQ</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SL0I5A</t>
+          <t>Y6LFGM</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>XRILET</t>
+          <t>FWE119</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>AM186P</t>
+          <t>EV5NYV</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>59LETX</t>
+          <t>ID5GEI</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>B3ZUEF</t>
+          <t>QGULZ8</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>GV6WUW</t>
+          <t>BZV5PQ</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>JZUOWW</t>
+          <t>525L1Y</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3PG01D</t>
+          <t>5KXBG1</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>RRMHJH</t>
+          <t>NW7W5Y</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>T9CW7J</t>
+          <t>MUC9ID</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J3DGOT</t>
+          <t>VYHMBV</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5IF761</t>
+          <t>E8VUFL</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Y04NWC</t>
+          <t>70ENUE</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>YBDAFJ</t>
+          <t>9DF8BH</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>07QV6Z</t>
+          <t>4KOVQG</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HXTVBU</t>
+          <t>HJ27P7</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>UB3K2P</t>
+          <t>HBW2YN</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>N4YITJ</t>
+          <t>G5FMW6</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TW5D7E</t>
+          <t>KONFLX</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>USAO9A</t>
+          <t>OULFFV</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1ROAWA</t>
+          <t>NBCRG3</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>XQF3N1</t>
+          <t>83JOJ0</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>IUM2KH</t>
+          <t>EPFPTM</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BQW8K1</t>
+          <t>YHTUB3</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HGMAQA</t>
+          <t>GQ9IOU</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2GKX0I</t>
+          <t>R3WN4J</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EH6GGZ</t>
+          <t>J2L51T</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>APEI61</t>
+          <t>P6335J</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>CFCB0N</t>
+          <t>WII6ZL</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>B45ZQ8</t>
+          <t>L1Z13P</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HDM6LN</t>
+          <t>KFZ4GQ</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>8QBEPP</t>
+          <t>5R7MZ6</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>MLRUKQ</t>
+          <t>ZJ5WQL</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Y7EL6J</t>
+          <t>RV9RJT</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>R2EDCT</t>
+          <t>VZCKZA</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4GR7W2</t>
+          <t>5WMS01</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>UGBB7Y</t>
+          <t>40RA0H</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>RFFWI4</t>
+          <t>Q4IDV6</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>J4U7U3</t>
+          <t>F38NYC</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>B0YGTH</t>
+          <t>IUSQ9K</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BICGJP</t>
+          <t>NPE1T5</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1WRKY2</t>
+          <t>T8A2L2</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>FS7EAA</t>
+          <t>JVVOEL</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>7U1YEU</t>
+          <t>H0XSBL</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>10IETL</t>
+          <t>02F7AZ</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>7F2MKW</t>
+          <t>XPIPVS</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CKEFGW</t>
+          <t>IOVXKS</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>G6SV72</t>
+          <t>7JNKF8</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SO4F70</t>
+          <t>DGJYEE</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>UONN4O</t>
+          <t>BR8CUK</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>FMRJLL</t>
+          <t>T041FT</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>APJPDC</t>
+          <t>FQB3LY</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>QY0Z14</t>
+          <t>LBF1C0</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>RUQW4Q</t>
+          <t>5XTQQV</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>GYH4GT</t>
+          <t>2OSQ5O</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NUJ9UA</t>
+          <t>BUWFSM</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>UVVBYX</t>
+          <t>0MKMO1</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>PPQFOV</t>
+          <t>KR8DJI</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2FGRJK</t>
+          <t>SWIEJ8</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Z60KTL</t>
+          <t>N136UF</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AAAAIA</t>
+          <t>5H7IV2</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>A6BF2O</t>
+          <t>RRXAWV</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>88TCVG</t>
+          <t>7US8WI</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>XNPCDO</t>
+          <t>KKRE8P</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>WBR4MR</t>
+          <t>0MPPR2</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>08XTUQ</t>
+          <t>RR0QY3</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Q5D0Y2</t>
+          <t>BGQYV9</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HGXZ68</t>
+          <t>C9QG45</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>7D25YF</t>
+          <t>EB562T</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>7VSIOS</t>
+          <t>5BOT1X</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>NC1SM0</t>
+          <t>11RLB2</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>QBEXDS</t>
+          <t>K4F7ZH</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HS7M8G</t>
+          <t>INENKL</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>VD57SF</t>
+          <t>3D5KCA</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2YMQWQ</t>
+          <t>E03KL9</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>PDM2QO</t>
+          <t>U04D8T</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>6KZKUF</t>
+          <t>SXU2VK</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CR8GKU</t>
+          <t>62UWQL</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>8EIU7E</t>
+          <t>YKLIZS</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>QFW55W</t>
+          <t>3S7OQS</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>989YVC</t>
+          <t>7ZBXJK</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>DMDR8F</t>
+          <t>I7WNFT</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>H2YROH</t>
+          <t>44RF4S</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>HDIYCZ</t>
+          <t>0C0G0C</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>UMFMVR</t>
+          <t>LRFL4G</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>XTB2G8</t>
+          <t>EOPKVJ</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>O12HD0</t>
+          <t>I6JRLH</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>5U0LKO</t>
+          <t>XQX88N</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>VJRO3D</t>
+          <t>QUWF61</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>N95MD9</t>
+          <t>B3HURI</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>JFLTXV</t>
+          <t>4RMLTA</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>GZMYIW</t>
+          <t>PO4SX6</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>V34O9C</t>
+          <t>F4YOGD</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BD3VKV</t>
+          <t>1ZZQMX</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>CNFIG4</t>
+          <t>36W761</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>66IHN5</t>
+          <t>Q5LLK4</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>C47RMJ</t>
+          <t>YXQI6G</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>N0KXEY</t>
+          <t>Y1YE6Q</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>V19GEY</t>
+          <t>MYFCJD</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>YRCR45</t>
+          <t>66V65B</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DKE3MH</t>
+          <t>5A544G</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2ZSTLW</t>
+          <t>DEHSXF</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>JOGX8O</t>
+          <t>XKXAZR</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>BAT7SF</t>
+          <t>IZ7GMU</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2A178D</t>
+          <t>Y76ZJ5</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>RQPOQG</t>
+          <t>WSOEW5</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>TM3KJW</t>
+          <t>CFJTIB</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2K2O9J</t>
+          <t>IXTGQG</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>OPMWL9</t>
+          <t>LHT3XC</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>VD5KX9</t>
+          <t>X5I859</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>NDKN8H</t>
+          <t>TUVRMY</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>YIUYT6</t>
+          <t>4E6NI7</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0CBMYV</t>
+          <t>OGHTAZ</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8YXCOU</t>
+          <t>L6GN84</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>21KSIZ</t>
+          <t>8FVUE2</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>TLJKV8</t>
+          <t>9GDU5G</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>3HJ6XQ</t>
+          <t>76VD3O</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>7LATIN</t>
+          <t>YP63CL</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>X1FAZB</t>
+          <t>8VYMB8</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>UVZO86</t>
+          <t>N5DE0Q</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>50H60B</t>
+          <t>HH0QTT</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>9ANU1J</t>
+          <t>3KI3OH</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>C99HQW</t>
+          <t>02ONG3</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MZ1ZBJ</t>
+          <t>Z1QFHE</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>GUR1BA</t>
+          <t>0T9J80</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>T5H7C6</t>
+          <t>GWF18A</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>LSZ0XJ</t>
+          <t>5RGIEY</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>6BPAH6</t>
+          <t>JFOPMP</t>
         </is>
       </c>
     </row>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Y9JRCX</t>
+          <t>AOMZAW</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>SPF64J</t>
+          <t>WWAV5C</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>8NAWCO</t>
+          <t>3U26H7</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>00X1SN</t>
+          <t>U9S7P4</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>27YW1A</t>
+          <t>SW4V6P</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>MEIKNG</t>
+          <t>CWKG7U</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>KSAJ2M</t>
+          <t>S1QSLG</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>BPWZWR</t>
+          <t>F77DXW</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>81B48Y</t>
+          <t>H9VCLK</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>K6Z4FD</t>
+          <t>EGN92O</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>4UIXU2</t>
+          <t>2HS1Z9</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>MAFOTC</t>
+          <t>4LMNQR</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>7771M8</t>
+          <t>ZH46ED</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>47BHFW</t>
+          <t>YXHTAP</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>NIVWOY</t>
+          <t>NYTBBU</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>KUQDU3</t>
+          <t>BNXF0M</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>4ISIYW</t>
+          <t>GL89TL</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>27S891</t>
+          <t>GDQDRU</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>LZKU5W</t>
+          <t>HB9WDE</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>MYGJRF</t>
+          <t>MZ918Y</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SE80UO</t>
+          <t>77CN7A</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>0CCDJC</t>
+          <t>SV9L2T</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>TIS9GR</t>
+          <t>U0CPVB</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>826VAW</t>
+          <t>444CAY</t>
         </is>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>AEV65K</t>
+          <t>3KEBWF</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>YT4SD6</t>
+          <t>8QG62G</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>PTQ0O1</t>
+          <t>B4YFUM</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>FN2N9O</t>
+          <t>D7Q9YF</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>08L2EO</t>
+          <t>UJ0NDN</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>M1QZ6K</t>
+          <t>0NMTOV</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>380NPZ</t>
+          <t>IH8BTF</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>IMOSL2</t>
+          <t>5YBNC2</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>T7TXOR</t>
+          <t>0I754I</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>HFS7QS</t>
+          <t>9Z98S9</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>ZTKQ1R</t>
+          <t>FAR328</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>D65OT9</t>
+          <t>FDOACH</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>8ZU4GU</t>
+          <t>HBO7LU</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>MN50A2</t>
+          <t>N6BSL3</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>8GW58J</t>
+          <t>EK8A0D</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Mare_posts.xlsx
+++ b/Actual Coding/Mare_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ZL7UAW</t>
+          <t>D3T6Y0</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>E1LMNG</t>
+          <t>FDXCS5</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VVPPGP</t>
+          <t>RD02IJ</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CB31LP</t>
+          <t>B5OTCX</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6ZXDLK</t>
+          <t>QWJJFV</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JNXPWN</t>
+          <t>9PXC7V</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M3LRY7</t>
+          <t>O147RE</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>QE3L25</t>
+          <t>DJHVE5</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3IQMQA</t>
+          <t>HBHUOZ</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PFIT1J</t>
+          <t>3ENK2V</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R6366G</t>
+          <t>4WQTWV</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6YKJKZ</t>
+          <t>YC7U1F</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GJSTQF</t>
+          <t>GW81TD</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DPF0VR</t>
+          <t>TGJIEU</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2C3MD8</t>
+          <t>R7X7W6</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>KHRFLQ</t>
+          <t>556S59</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AXEJ3S</t>
+          <t>1R3X4A</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MF48EN</t>
+          <t>NZ6E5E</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ETPAHZ</t>
+          <t>XYMBRE</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EB5ABI</t>
+          <t>2LGIQ7</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R6FQKG</t>
+          <t>7XBP9X</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>768CNG</t>
+          <t>5BSKJ9</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>YYHKLP</t>
+          <t>3CWYNB</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>IGWY5R</t>
+          <t>IM4JQB</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DY0494</t>
+          <t>FF1DK3</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>98245P</t>
+          <t>1CXT84</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NHZNC1</t>
+          <t>0VZ6JL</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NEOLDL</t>
+          <t>1QHI0H</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>30ALTM</t>
+          <t>KOQ305</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CGDZPB</t>
+          <t>WPO8E3</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HWYIBN</t>
+          <t>3V6I4Z</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MU9UP0</t>
+          <t>ENWAHK</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>P1SVAT</t>
+          <t>RV3HHV</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GOIGYL</t>
+          <t>3C51GP</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>J7MIOI</t>
+          <t>UWZ8H0</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2XGXPE</t>
+          <t>0U9O02</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IE1436</t>
+          <t>MOMRKU</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8Q7MAP</t>
+          <t>QBG9RK</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A6LBBX</t>
+          <t>6G5IJT</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>K932SY</t>
+          <t>6YRRFW</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>G9C4AU</t>
+          <t>3M6MW9</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6RCG4R</t>
+          <t>WFN7XQ</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>OFTQUH</t>
+          <t>TK0V2I</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>OPMIUO</t>
+          <t>O4YDGC</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>KZQ8EV</t>
+          <t>KP2JQ7</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>450GT8</t>
+          <t>L6LTDZ</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ED4R0A</t>
+          <t>HHAHON</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>33I489</t>
+          <t>PI0VUX</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CPYR7H</t>
+          <t>8S6XY8</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BT66CM</t>
+          <t>W2RCW9</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GLQOD9</t>
+          <t>BI2SJD</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AOOG9Q</t>
+          <t>7OIR1B</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DLD3ST</t>
+          <t>2BUIF3</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>72HSLE</t>
+          <t>Y92348</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NM9A0T</t>
+          <t>CIVJ71</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BSMLVY</t>
+          <t>CF3UW6</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>73CIX7</t>
+          <t>48QCX3</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>WN5D0O</t>
+          <t>6G3Q1O</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>54VWH6</t>
+          <t>QTTMSU</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LHKMPD</t>
+          <t>LNR973</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ASH8FX</t>
+          <t>2N11NK</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CP8R2F</t>
+          <t>SFF5YA</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PV1KI9</t>
+          <t>Z6ZWMN</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>USMN3B</t>
+          <t>QQWBFS</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>E6BYJA</t>
+          <t>9TXO0D</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>JKY6VM</t>
+          <t>RK72QO</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5WNWI9</t>
+          <t>9H1LPF</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3OCHGU</t>
+          <t>7S7JXQ</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>V52XG1</t>
+          <t>P0B29B</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>YNDWVD</t>
+          <t>9BVWJ8</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>V1LTIU</t>
+          <t>LO2O3S</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JWLRIA</t>
+          <t>URP9A0</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4IRREG</t>
+          <t>WK43EL</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>648ENZ</t>
+          <t>A7S8IT</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TQOMXM</t>
+          <t>2RKXF8</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CGF0Z7</t>
+          <t>NZX2JM</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J6291H</t>
+          <t>WJEHKD</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>KGRMFZ</t>
+          <t>4JT71R</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>D7ZX2W</t>
+          <t>1ISSE5</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EJ5AZE</t>
+          <t>G55U7B</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ETNP3T</t>
+          <t>D7PDG9</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>W4CDTE</t>
+          <t>YV65KE</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SZPIB4</t>
+          <t>52PDC3</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>IRNIBG</t>
+          <t>TOICR4</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>OCDQIW</t>
+          <t>4MPSJN</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4ZZ5XU</t>
+          <t>QW0NA1</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>86L8O2</t>
+          <t>XOT2DD</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>V5J8J0</t>
+          <t>RDOZ58</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>U47B59</t>
+          <t>3ADEF0</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>KDUX4D</t>
+          <t>BYQ3ZK</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GQNB41</t>
+          <t>IFH03B</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>QV8QLO</t>
+          <t>64IL2V</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>O1GHEA</t>
+          <t>MTFNL5</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9D7CBG</t>
+          <t>8PRWZJ</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>YYGM1F</t>
+          <t>0Z3QDA</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GT7YJL</t>
+          <t>YBUEHC</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NY7WYG</t>
+          <t>VJOSW8</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>00XM4L</t>
+          <t>CS4A6C</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>61CY90</t>
+          <t>FVLIGK</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>844NQM</t>
+          <t>UBLNC7</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5WF6QF</t>
+          <t>Z43BIO</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MFS85W</t>
+          <t>O3PFJG</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>OH0QTW</t>
+          <t>ZAUHDW</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>YIODNU</t>
+          <t>A2U8LU</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5H5ZF8</t>
+          <t>P6HO80</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>P0KAEP</t>
+          <t>NASRWA</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GI8N49</t>
+          <t>JP1475</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>VQKBYF</t>
+          <t>3PHLXX</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NSP29N</t>
+          <t>AWBDG7</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1JDAG3</t>
+          <t>A9LHKN</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>O7WO6S</t>
+          <t>GPX5LK</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>OFGE7O</t>
+          <t>D0X5WO</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MYD7AY</t>
+          <t>6JAFI8</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>KHMNJG</t>
+          <t>YH69CY</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>W1UX3V</t>
+          <t>7OFOHO</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HV8DMD</t>
+          <t>BNS6OC</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>92HNEX</t>
+          <t>WN0YLX</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>FAP5DD</t>
+          <t>MMA4M4</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>OILCF8</t>
+          <t>XEY329</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2RTU0G</t>
+          <t>J9RTB6</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>LKVS2W</t>
+          <t>JNHHN6</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CFVH9A</t>
+          <t>JCBLEZ</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>RADZUL</t>
+          <t>HUUZGW</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DYASKL</t>
+          <t>8HKW2W</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>GR6XL0</t>
+          <t>TVHDQI</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>GEUPDH</t>
+          <t>Y7M8NQ</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NZLJRO</t>
+          <t>3NUBJR</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>RFUXJ6</t>
+          <t>5Q1K56</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BJ2T07</t>
+          <t>JULJ94</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>KXQWUI</t>
+          <t>2PJBJ7</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SOVHY1</t>
+          <t>O9CG9B</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>WNKBKG</t>
+          <t>U7WMJC</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3JBCMQ</t>
+          <t>GNP6P2</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Y6LFGM</t>
+          <t>8V09SS</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>FWE119</t>
+          <t>2PP0FX</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EV5NYV</t>
+          <t>EY408V</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ID5GEI</t>
+          <t>4NRALA</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>QGULZ8</t>
+          <t>C6CTB5</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>BZV5PQ</t>
+          <t>GYZUTD</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>525L1Y</t>
+          <t>JXO3U6</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5KXBG1</t>
+          <t>GRAUY3</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NW7W5Y</t>
+          <t>M8MEDY</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MUC9ID</t>
+          <t>DNJ1K3</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>VYHMBV</t>
+          <t>86EH5A</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>E8VUFL</t>
+          <t>I8NF5G</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>70ENUE</t>
+          <t>PPXL1H</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>9DF8BH</t>
+          <t>436RDA</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4KOVQG</t>
+          <t>3CWASB</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HJ27P7</t>
+          <t>VDY3UM</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HBW2YN</t>
+          <t>R1QANC</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>G5FMW6</t>
+          <t>4JV8JY</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>KONFLX</t>
+          <t>0YSBIP</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>OULFFV</t>
+          <t>GTGBMY</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NBCRG3</t>
+          <t>RFLXBW</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>83JOJ0</t>
+          <t>41YPZQ</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EPFPTM</t>
+          <t>2B3A2W</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>YHTUB3</t>
+          <t>3MVH1T</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GQ9IOU</t>
+          <t>RQJ2QI</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>R3WN4J</t>
+          <t>7SAPDS</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>J2L51T</t>
+          <t>WBWEQF</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>P6335J</t>
+          <t>VJIESD</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>WII6ZL</t>
+          <t>14MYWM</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>L1Z13P</t>
+          <t>AAL6VI</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>KFZ4GQ</t>
+          <t>9VIK7A</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>5R7MZ6</t>
+          <t>QPABMM</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ZJ5WQL</t>
+          <t>CD75PR</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>RV9RJT</t>
+          <t>P60SK0</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>VZCKZA</t>
+          <t>WAGX0D</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5WMS01</t>
+          <t>B6PCY2</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>40RA0H</t>
+          <t>M8D224</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Q4IDV6</t>
+          <t>6X980D</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>F38NYC</t>
+          <t>5LIL8J</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>IUSQ9K</t>
+          <t>AQW4MZ</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NPE1T5</t>
+          <t>J8KGRW</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>T8A2L2</t>
+          <t>QUQU2I</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>JVVOEL</t>
+          <t>SK9VGT</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>H0XSBL</t>
+          <t>27VXT2</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>02F7AZ</t>
+          <t>CLED7C</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>XPIPVS</t>
+          <t>II3M6M</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>IOVXKS</t>
+          <t>7XRIDY</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>7JNKF8</t>
+          <t>V1EBFR</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DGJYEE</t>
+          <t>Z9LNNI</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>BR8CUK</t>
+          <t>I2F360</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>T041FT</t>
+          <t>8I1I67</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>FQB3LY</t>
+          <t>HH6C21</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>LBF1C0</t>
+          <t>RYU4ND</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>5XTQQV</t>
+          <t>FHR5E9</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2OSQ5O</t>
+          <t>0ATFW9</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>BUWFSM</t>
+          <t>4SFF0E</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>0MKMO1</t>
+          <t>8KZJ3Z</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>KR8DJI</t>
+          <t>AZFIPT</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SWIEJ8</t>
+          <t>L9YPLA</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>N136UF</t>
+          <t>GY5YVB</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>5H7IV2</t>
+          <t>3XZGQI</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>RRXAWV</t>
+          <t>O2YC93</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>7US8WI</t>
+          <t>N1BXE4</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>KKRE8P</t>
+          <t>XK5NS3</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0MPPR2</t>
+          <t>Y7DFH5</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RR0QY3</t>
+          <t>DRWF54</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>BGQYV9</t>
+          <t>5K8S9J</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>C9QG45</t>
+          <t>RI9KMS</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>EB562T</t>
+          <t>0L1XH6</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>5BOT1X</t>
+          <t>FJYKN8</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>11RLB2</t>
+          <t>MOVS25</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>K4F7ZH</t>
+          <t>235MKP</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>INENKL</t>
+          <t>0E004N</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3D5KCA</t>
+          <t>XIDRLO</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>E03KL9</t>
+          <t>RP3CJT</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>U04D8T</t>
+          <t>J0IXHB</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SXU2VK</t>
+          <t>G27NWC</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>62UWQL</t>
+          <t>4DG7R2</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>YKLIZS</t>
+          <t>81A1YE</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>3S7OQS</t>
+          <t>JA233O</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>7ZBXJK</t>
+          <t>1N5OYY</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>I7WNFT</t>
+          <t>Y5O1J1</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>44RF4S</t>
+          <t>8ITUCT</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>0C0G0C</t>
+          <t>31UAEG</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>LRFL4G</t>
+          <t>8L138P</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EOPKVJ</t>
+          <t>24V7M4</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>I6JRLH</t>
+          <t>TSWZSC</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>XQX88N</t>
+          <t>UDPVRZ</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>QUWF61</t>
+          <t>A60CFK</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>B3HURI</t>
+          <t>ZF5KTM</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>4RMLTA</t>
+          <t>3FW09T</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>PO4SX6</t>
+          <t>FIGPP4</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>F4YOGD</t>
+          <t>UEZFIW</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1ZZQMX</t>
+          <t>ZVTNGG</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>36W761</t>
+          <t>TZGCPK</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Q5LLK4</t>
+          <t>PZQWC6</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>YXQI6G</t>
+          <t>ECEXUI</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Y1YE6Q</t>
+          <t>EU3AD4</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MYFCJD</t>
+          <t>CQAJ1A</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>66V65B</t>
+          <t>H6EW55</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>5A544G</t>
+          <t>CZ05O2</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>DEHSXF</t>
+          <t>0X8SF3</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>XKXAZR</t>
+          <t>P8D4PJ</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>IZ7GMU</t>
+          <t>EJT5DM</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Y76ZJ5</t>
+          <t>TZ4E54</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>WSOEW5</t>
+          <t>GZUGZ4</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>CFJTIB</t>
+          <t>12R82Q</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>IXTGQG</t>
+          <t>0MB0Y9</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>LHT3XC</t>
+          <t>2AWVGE</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>X5I859</t>
+          <t>SZW57D</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>TUVRMY</t>
+          <t>YJVRM4</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>4E6NI7</t>
+          <t>5GK5FB</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>OGHTAZ</t>
+          <t>0HRO9Q</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>L6GN84</t>
+          <t>99WW5L</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8FVUE2</t>
+          <t>JCAYIT</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>9GDU5G</t>
+          <t>9QWH6R</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>76VD3O</t>
+          <t>HVRRQR</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>YP63CL</t>
+          <t>GSL7ND</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>8VYMB8</t>
+          <t>X9TKUY</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>N5DE0Q</t>
+          <t>ILCE2F</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>HH0QTT</t>
+          <t>2TWFVP</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>3KI3OH</t>
+          <t>E3QX9B</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>02ONG3</t>
+          <t>5PLCUP</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Z1QFHE</t>
+          <t>UIRU0B</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>0T9J80</t>
+          <t>WH60PZ</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>GWF18A</t>
+          <t>OZL09C</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>5RGIEY</t>
+          <t>KKGY9S</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>JFOPMP</t>
+          <t>DOY2SX</t>
         </is>
       </c>
     </row>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>AOMZAW</t>
+          <t>5FH5FI</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>WWAV5C</t>
+          <t>N9L8G0</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>3U26H7</t>
+          <t>D2PS5E</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>U9S7P4</t>
+          <t>WW9SHG</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>SW4V6P</t>
+          <t>DPVUKF</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CWKG7U</t>
+          <t>CMUU8Q</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>S1QSLG</t>
+          <t>O4AO6V</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>F77DXW</t>
+          <t>VAK9DY</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>H9VCLK</t>
+          <t>PRILTB</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>EGN92O</t>
+          <t>LHBFW2</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2HS1Z9</t>
+          <t>7N1NVD</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>4LMNQR</t>
+          <t>E6X6GC</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ZH46ED</t>
+          <t>Q0P5Z2</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>YXHTAP</t>
+          <t>43UF6F</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>NYTBBU</t>
+          <t>2HHXUV</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>BNXF0M</t>
+          <t>L3W3CB</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>GL89TL</t>
+          <t>8U8I8J</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>GDQDRU</t>
+          <t>9ZZ0L1</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>HB9WDE</t>
+          <t>PD60F3</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>MZ918Y</t>
+          <t>0NMYUW</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>77CN7A</t>
+          <t>968JGH</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>SV9L2T</t>
+          <t>V39911</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>U0CPVB</t>
+          <t>5GQ6KO</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>444CAY</t>
+          <t>517N5L</t>
         </is>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>3KEBWF</t>
+          <t>7M2SC8</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>8QG62G</t>
+          <t>DRHZ25</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>B4YFUM</t>
+          <t>TAJ0WX</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>D7Q9YF</t>
+          <t>3ABPHK</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>UJ0NDN</t>
+          <t>6JPTQ9</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>0NMTOV</t>
+          <t>8W1SPZ</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>IH8BTF</t>
+          <t>NH8MA8</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>5YBNC2</t>
+          <t>GUT2OA</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>0I754I</t>
+          <t>6VJ7A2</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>9Z98S9</t>
+          <t>91SMNL</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>FAR328</t>
+          <t>FE3JYY</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>FDOACH</t>
+          <t>2TUJHH</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>HBO7LU</t>
+          <t>Z4VIM5</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>N6BSL3</t>
+          <t>9P8O0S</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>EK8A0D</t>
+          <t>JONWOQ</t>
         </is>
       </c>
     </row>

--- a/Actual Coding/Mare_posts.xlsx
+++ b/Actual Coding/Mare_posts.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D3T6Y0</t>
+          <t>MVM3CH</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FDXCS5</t>
+          <t>NM44AJ</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RD02IJ</t>
+          <t>NIL2P5</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B5OTCX</t>
+          <t>FJKN92</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>QWJJFV</t>
+          <t>XJEM1G</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9PXC7V</t>
+          <t>X0JAB0</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O147RE</t>
+          <t>C74U65</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DJHVE5</t>
+          <t>7BLWWX</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HBHUOZ</t>
+          <t>T63EMJ</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3ENK2V</t>
+          <t>DD9V4J</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4WQTWV</t>
+          <t>QIYFUV</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>YC7U1F</t>
+          <t>B4MG8N</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GW81TD</t>
+          <t>QG3LM9</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TGJIEU</t>
+          <t>O0OZDO</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R7X7W6</t>
+          <t>H6XOYD</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>556S59</t>
+          <t>CT6GDR</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1R3X4A</t>
+          <t>LZVBFT</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NZ6E5E</t>
+          <t>U1J0MB</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>XYMBRE</t>
+          <t>HPP4V4</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2LGIQ7</t>
+          <t>M8JLLG</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7XBP9X</t>
+          <t>EH1UN0</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5BSKJ9</t>
+          <t>UKHQCV</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3CWYNB</t>
+          <t>42CDCC</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>IM4JQB</t>
+          <t>85334Q</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FF1DK3</t>
+          <t>SGSS6Q</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1CXT84</t>
+          <t>OG7X5M</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0VZ6JL</t>
+          <t>JHLJLK</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1QHI0H</t>
+          <t>H7XNSJ</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KOQ305</t>
+          <t>78Y083</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WPO8E3</t>
+          <t>3JX1QY</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3V6I4Z</t>
+          <t>ASQD9B</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ENWAHK</t>
+          <t>UCALMI</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RV3HHV</t>
+          <t>94AN4Z</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3C51GP</t>
+          <t>FQE9AX</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>UWZ8H0</t>
+          <t>ZU3OO5</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0U9O02</t>
+          <t>XNXX6O</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MOMRKU</t>
+          <t>UEZ2VO</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>QBG9RK</t>
+          <t>S46O3P</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6G5IJT</t>
+          <t>0SK8QX</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6YRRFW</t>
+          <t>XSFWM4</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3M6MW9</t>
+          <t>J5ENHC</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>WFN7XQ</t>
+          <t>I4JSRN</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TK0V2I</t>
+          <t>L9YWGT</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>O4YDGC</t>
+          <t>NV1VDV</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>KP2JQ7</t>
+          <t>3LMPFX</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>L6LTDZ</t>
+          <t>34S0D3</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HHAHON</t>
+          <t>ETNPJR</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PI0VUX</t>
+          <t>W2KU45</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>8S6XY8</t>
+          <t>WMZY4Z</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>W2RCW9</t>
+          <t>TBTBO0</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BI2SJD</t>
+          <t>E7JASN</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7OIR1B</t>
+          <t>09NWKS</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2BUIF3</t>
+          <t>56UGIX</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Y92348</t>
+          <t>RA9PLO</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CIVJ71</t>
+          <t>3PMEHG</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CF3UW6</t>
+          <t>ASEBZB</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>48QCX3</t>
+          <t>24WPRT</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6G3Q1O</t>
+          <t>8SQF1F</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>QTTMSU</t>
+          <t>60HVS4</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LNR973</t>
+          <t>1G9NY2</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2N11NK</t>
+          <t>60ZKYB</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SFF5YA</t>
+          <t>NUGM1M</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Z6ZWMN</t>
+          <t>MHGG93</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>QQWBFS</t>
+          <t>27UILM</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>9TXO0D</t>
+          <t>RP0DD9</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RK72QO</t>
+          <t>9L1UV2</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>9H1LPF</t>
+          <t>7WNFBX</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>7S7JXQ</t>
+          <t>MI6PGZ</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>P0B29B</t>
+          <t>IWN2BS</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>9BVWJ8</t>
+          <t>3NM87Q</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LO2O3S</t>
+          <t>3GZE4N</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>URP9A0</t>
+          <t>ND79H9</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>WK43EL</t>
+          <t>9RBN3Q</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A7S8IT</t>
+          <t>1PA6TV</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2RKXF8</t>
+          <t>BRDXNA</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NZX2JM</t>
+          <t>U4T8PZ</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>WJEHKD</t>
+          <t>KZMBWT</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4JT71R</t>
+          <t>CL2380</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1ISSE5</t>
+          <t>11AY9D</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G55U7B</t>
+          <t>39XOGL</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>D7PDG9</t>
+          <t>5J9Z1N</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>YV65KE</t>
+          <t>71S2KO</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>52PDC3</t>
+          <t>06D0Y4</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TOICR4</t>
+          <t>F2K34X</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4MPSJN</t>
+          <t>XOI7GX</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>QW0NA1</t>
+          <t>W2E09L</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>XOT2DD</t>
+          <t>ZYH86Z</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RDOZ58</t>
+          <t>H0GXE7</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3ADEF0</t>
+          <t>AIQZA6</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BYQ3ZK</t>
+          <t>JQU6DS</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>IFH03B</t>
+          <t>MVAITX</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>64IL2V</t>
+          <t>CRECEA</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MTFNL5</t>
+          <t>LCS8PJ</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8PRWZJ</t>
+          <t>EICOXI</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0Z3QDA</t>
+          <t>GXCME6</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>YBUEHC</t>
+          <t>0EYS87</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>VJOSW8</t>
+          <t>AUJERT</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CS4A6C</t>
+          <t>5YD6ID</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>FVLIGK</t>
+          <t>GYZMYP</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>UBLNC7</t>
+          <t>ASZW56</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Z43BIO</t>
+          <t>NTH5DN</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>O3PFJG</t>
+          <t>9U2134</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ZAUHDW</t>
+          <t>42UZ6T</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>A2U8LU</t>
+          <t>7B3YSR</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>P6HO80</t>
+          <t>GM7801</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NASRWA</t>
+          <t>VL4YMI</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>JP1475</t>
+          <t>BALDYF</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3PHLXX</t>
+          <t>UQL61U</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>AWBDG7</t>
+          <t>TW9II9</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A9LHKN</t>
+          <t>HW56U9</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>GPX5LK</t>
+          <t>UWXQIG</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>D0X5WO</t>
+          <t>IN1DU7</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>6JAFI8</t>
+          <t>GFBUOX</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>YH69CY</t>
+          <t>Y82C4M</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>7OFOHO</t>
+          <t>SIRPWP</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BNS6OC</t>
+          <t>9TNW97</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>WN0YLX</t>
+          <t>QNQYM2</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MMA4M4</t>
+          <t>PZFDEW</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>XEY329</t>
+          <t>R1CYHS</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>J9RTB6</t>
+          <t>JK1KKE</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>JNHHN6</t>
+          <t>IVGZWQ</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>JCBLEZ</t>
+          <t>3CL2XT</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HUUZGW</t>
+          <t>EVNA8A</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>8HKW2W</t>
+          <t>F711TZ</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>TVHDQI</t>
+          <t>7XZXHO</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Y7M8NQ</t>
+          <t>495KA1</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3NUBJR</t>
+          <t>J5Q4FQ</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>5Q1K56</t>
+          <t>7HS99D</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>JULJ94</t>
+          <t>GSY5DL</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2PJBJ7</t>
+          <t>4OG14L</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>O9CG9B</t>
+          <t>4NDRWX</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>U7WMJC</t>
+          <t>I0CURP</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GNP6P2</t>
+          <t>OLE2D8</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>8V09SS</t>
+          <t>BO0R5E</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2PP0FX</t>
+          <t>QFIDIW</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EY408V</t>
+          <t>YBYHQV</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4NRALA</t>
+          <t>FKCBGQ</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>C6CTB5</t>
+          <t>OLWAG3</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>GYZUTD</t>
+          <t>V33OTE</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>JXO3U6</t>
+          <t>O5S32F</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GRAUY3</t>
+          <t>4BYMOA</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>M8MEDY</t>
+          <t>MBSLB6</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DNJ1K3</t>
+          <t>20P6E1</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>86EH5A</t>
+          <t>N81EMV</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>I8NF5G</t>
+          <t>NDP8QF</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PPXL1H</t>
+          <t>19UUBE</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>436RDA</t>
+          <t>NHGBXS</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>3CWASB</t>
+          <t>65QRMH</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>VDY3UM</t>
+          <t>CHU3E5</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>R1QANC</t>
+          <t>XONHXO</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4JV8JY</t>
+          <t>U3Y4AP</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0YSBIP</t>
+          <t>WKY83P</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>GTGBMY</t>
+          <t>AIWXVN</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>RFLXBW</t>
+          <t>Y68G90</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>41YPZQ</t>
+          <t>POQCDZ</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2B3A2W</t>
+          <t>7LE579</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3MVH1T</t>
+          <t>A8835W</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>RQJ2QI</t>
+          <t>PKFIIB</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>7SAPDS</t>
+          <t>I7V0NN</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>WBWEQF</t>
+          <t>TV019T</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>VJIESD</t>
+          <t>HD3NYM</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>14MYWM</t>
+          <t>Q86HVS</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>AAL6VI</t>
+          <t>1BBK3L</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>9VIK7A</t>
+          <t>1DABAW</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>QPABMM</t>
+          <t>J5O6K5</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CD75PR</t>
+          <t>7CDOLR</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>P60SK0</t>
+          <t>T1LKF8</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>WAGX0D</t>
+          <t>KNHXX1</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>B6PCY2</t>
+          <t>6V10RA</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>M8D224</t>
+          <t>MWDRVU</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>6X980D</t>
+          <t>H2ES8U</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5LIL8J</t>
+          <t>WWE98L</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>AQW4MZ</t>
+          <t>RY5N6E</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>J8KGRW</t>
+          <t>JOV64I</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>QUQU2I</t>
+          <t>XK9FUD</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SK9VGT</t>
+          <t>S665IH</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>27VXT2</t>
+          <t>BJRBMU</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>CLED7C</t>
+          <t>QWFARW</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>II3M6M</t>
+          <t>JQF1KR</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>7XRIDY</t>
+          <t>PNY68S</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>V1EBFR</t>
+          <t>Q38GYI</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Z9LNNI</t>
+          <t>KY9C4W</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>I2F360</t>
+          <t>PRDVO0</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>8I1I67</t>
+          <t>F4U40Y</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HH6C21</t>
+          <t>2JEBUX</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>RYU4ND</t>
+          <t>GZJ87X</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>FHR5E9</t>
+          <t>SEJ6QM</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0ATFW9</t>
+          <t>JJH5G1</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>4SFF0E</t>
+          <t>GUPDCJ</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>8KZJ3Z</t>
+          <t>HF2H0Q</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>AZFIPT</t>
+          <t>SGWK0G</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>L9YPLA</t>
+          <t>2TUB6J</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>GY5YVB</t>
+          <t>NLY4SR</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>3XZGQI</t>
+          <t>452RE3</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>O2YC93</t>
+          <t>NISLKQ</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>N1BXE4</t>
+          <t>GA6P8A</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>XK5NS3</t>
+          <t>KPN6G3</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Y7DFH5</t>
+          <t>SIIN6F</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DRWF54</t>
+          <t>VR8OSJ</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>5K8S9J</t>
+          <t>FGG8F4</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>RI9KMS</t>
+          <t>Q884M5</t>
         </is>
       </c>
     </row>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>0L1XH6</t>
+          <t>P0XQ45</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>FJYKN8</t>
+          <t>4HTV6P</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MOVS25</t>
+          <t>87LLME</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>235MKP</t>
+          <t>YGX6F6</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0E004N</t>
+          <t>E5X49W</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>XIDRLO</t>
+          <t>LLB7B7</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>RP3CJT</t>
+          <t>DSPKQA</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>J0IXHB</t>
+          <t>0OEW8V</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>G27NWC</t>
+          <t>ZZNA6C</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>4DG7R2</t>
+          <t>F52ODE</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>81A1YE</t>
+          <t>V2PR3P</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>JA233O</t>
+          <t>3CHX1N</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1N5OYY</t>
+          <t>TVUJQE</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Y5O1J1</t>
+          <t>QQHSRL</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>8ITUCT</t>
+          <t>6J4TDP</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>31UAEG</t>
+          <t>9E72CJ</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>8L138P</t>
+          <t>YFYZH7</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>24V7M4</t>
+          <t>R6TKGP</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>TSWZSC</t>
+          <t>PTBKZB</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>UDPVRZ</t>
+          <t>I6PBJI</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>A60CFK</t>
+          <t>K5236X</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>ZF5KTM</t>
+          <t>0EF402</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3FW09T</t>
+          <t>6D613X</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>FIGPP4</t>
+          <t>NKK80F</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>UEZFIW</t>
+          <t>HTMNSW</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>ZVTNGG</t>
+          <t>QALZVT</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>TZGCPK</t>
+          <t>ZR943K</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>PZQWC6</t>
+          <t>XVBI9C</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>ECEXUI</t>
+          <t>W0KBPI</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>EU3AD4</t>
+          <t>R6HIIA</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>CQAJ1A</t>
+          <t>9ZWQS7</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>H6EW55</t>
+          <t>QXKX6X</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CZ05O2</t>
+          <t>KWBBG1</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>0X8SF3</t>
+          <t>MYKPIJ</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>P8D4PJ</t>
+          <t>TDMQGM</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>EJT5DM</t>
+          <t>HK9WAO</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>TZ4E54</t>
+          <t>WGAFZ2</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>GZUGZ4</t>
+          <t>7HBPBK</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12R82Q</t>
+          <t>Z61ZYA</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>0MB0Y9</t>
+          <t>R23DN8</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2AWVGE</t>
+          <t>7N3EYI</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>SZW57D</t>
+          <t>FJ1YHH</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>YJVRM4</t>
+          <t>PCWK73</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>5GK5FB</t>
+          <t>5BR9PZ</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>0HRO9Q</t>
+          <t>282M1J</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>99WW5L</t>
+          <t>VFLCCL</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>JCAYIT</t>
+          <t>0Z252J</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>9QWH6R</t>
+          <t>6PYGTM</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>HVRRQR</t>
+          <t>SL1UP7</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>GSL7ND</t>
+          <t>ZEPSDS</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>X9TKUY</t>
+          <t>XLM1R2</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>ILCE2F</t>
+          <t>3NWG3Q</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2TWFVP</t>
+          <t>FQY5WK</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>E3QX9B</t>
+          <t>ETJ3NH</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>5PLCUP</t>
+          <t>D79LT9</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>UIRU0B</t>
+          <t>I1RU3K</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>WH60PZ</t>
+          <t>UZXG7R</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>OZL09C</t>
+          <t>CLJO8L</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>KKGY9S</t>
+          <t>A6UDW5</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>DOY2SX</t>
+          <t>PJP7VC</t>
         </is>
       </c>
     </row>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>5FH5FI</t>
+          <t>5TDLGN</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>N9L8G0</t>
+          <t>CG2PU7</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>D2PS5E</t>
+          <t>5FJ0I1</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>WW9SHG</t>
+          <t>L8BRRL</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DPVUKF</t>
+          <t>P9P6NF</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CMUU8Q</t>
+          <t>SUFD1R</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>O4AO6V</t>
+          <t>PV1UNA</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>VAK9DY</t>
+          <t>BX6WOF</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>PRILTB</t>
+          <t>0Y2E5G</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>LHBFW2</t>
+          <t>U7SN5R</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>7N1NVD</t>
+          <t>7UD90G</t>
         </is>
       </c>
     </row>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>E6X6GC</t>
+          <t>TPUL2O</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Q0P5Z2</t>
+          <t>ATW86R</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>43UF6F</t>
+          <t>FOLIGJ</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2HHXUV</t>
+          <t>GIAZJY</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>L3W3CB</t>
+          <t>ERJR8E</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>8U8I8J</t>
+          <t>7NHOVU</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>9ZZ0L1</t>
+          <t>KW6YJZ</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>PD60F3</t>
+          <t>HKS4UU</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>0NMYUW</t>
+          <t>H3GEMK</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>968JGH</t>
+          <t>N2X15G</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>V39911</t>
+          <t>TPMZDL</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>5GQ6KO</t>
+          <t>2AJ2ZZ</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>517N5L</t>
+          <t>J1OHLD</t>
         </is>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>7M2SC8</t>
+          <t>3EN29R</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>DRHZ25</t>
+          <t>ASMCEL</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>TAJ0WX</t>
+          <t>08D4J6</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>3ABPHK</t>
+          <t>STAVLF</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>6JPTQ9</t>
+          <t>BHZEFC</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>8W1SPZ</t>
+          <t>VQAJ3M</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>NH8MA8</t>
+          <t>VM6AXZ</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>GUT2OA</t>
+          <t>JXVWVP</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>6VJ7A2</t>
+          <t>X1VYME</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>91SMNL</t>
+          <t>BVY5JZ</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>FE3JYY</t>
+          <t>W2E5HH</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2TUJHH</t>
+          <t>N9EQ4U</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Z4VIM5</t>
+          <t>ANZVQL</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>9P8O0S</t>
+          <t>DZNN13</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>JONWOQ</t>
+          <t>PHDZMH</t>
         </is>
       </c>
     </row>
